--- a/results/mp/tinybert/toy-spam/confidence/126/stop-words-topk-masking-0.15/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/toy-spam/confidence/126/stop-words-topk-masking-0.15/avg_0.003_scores.xlsx
@@ -43,16 +43,19 @@
     <t>poorly</t>
   </si>
   <si>
+    <t>thin</t>
+  </si>
+  <si>
     <t>disappointing</t>
   </si>
   <si>
-    <t>thin</t>
+    <t>poor</t>
   </si>
   <si>
     <t>however</t>
   </si>
   <si>
-    <t>poor</t>
+    <t>returned</t>
   </si>
   <si>
     <t>disappointed</t>
@@ -61,106 +64,103 @@
     <t>waste</t>
   </si>
   <si>
+    <t>smaller</t>
+  </si>
+  <si>
     <t>broke</t>
   </si>
   <si>
-    <t>returned</t>
+    <t>junk</t>
+  </si>
+  <si>
+    <t>water</t>
   </si>
   <si>
     <t>instead</t>
   </si>
   <si>
-    <t>water</t>
-  </si>
-  <si>
-    <t>junk</t>
-  </si>
-  <si>
-    <t>smaller</t>
-  </si>
-  <si>
     <t>small</t>
   </si>
   <si>
+    <t>okay</t>
+  </si>
+  <si>
     <t>guess</t>
   </si>
   <si>
+    <t>apart</t>
+  </si>
+  <si>
+    <t>broken</t>
+  </si>
+  <si>
+    <t>plastic</t>
+  </si>
+  <si>
     <t>cheap</t>
   </si>
   <si>
-    <t>plastic</t>
-  </si>
-  <si>
-    <t>paint</t>
-  </si>
-  <si>
-    <t>apart</t>
-  </si>
-  <si>
     <t>pay</t>
   </si>
   <si>
-    <t>broken</t>
-  </si>
-  <si>
-    <t>di</t>
-  </si>
-  <si>
     <t>ok</t>
   </si>
   <si>
+    <t>thought</t>
+  </si>
+  <si>
     <t>difficult</t>
   </si>
   <si>
-    <t>thought</t>
+    <t>bit</t>
+  </si>
+  <si>
+    <t>size</t>
   </si>
   <si>
     <t>though</t>
   </si>
   <si>
-    <t>size</t>
+    <t>money</t>
+  </si>
+  <si>
+    <t>would</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>item</t>
+  </si>
+  <si>
+    <t>back</t>
+  </si>
+  <si>
+    <t>better</t>
   </si>
   <si>
     <t>hard</t>
   </si>
   <si>
-    <t>money</t>
-  </si>
-  <si>
-    <t>item</t>
-  </si>
-  <si>
-    <t>would</t>
-  </si>
-  <si>
-    <t>price</t>
-  </si>
-  <si>
     <t>work</t>
   </si>
   <si>
     <t>product</t>
   </si>
   <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>pieces</t>
-  </si>
-  <si>
     <t>2</t>
   </si>
   <si>
     <t>use</t>
   </si>
   <si>
-    <t>buy</t>
+    <t>little</t>
   </si>
   <si>
     <t>like</t>
   </si>
   <si>
-    <t>little</t>
+    <t>much</t>
   </si>
   <si>
     <t>one</t>
@@ -169,15 +169,15 @@
     <t>negative</t>
   </si>
   <si>
+    <t>amazing</t>
+  </si>
+  <si>
     <t>wonderful</t>
   </si>
   <si>
     <t>awesome</t>
   </si>
   <si>
-    <t>amazing</t>
-  </si>
-  <si>
     <t>favorite</t>
   </si>
   <si>
@@ -202,37 +202,37 @@
     <t>perfect</t>
   </si>
   <si>
+    <t>loved</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>friends</t>
   </si>
   <si>
-    <t>loved</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
     <t>enjoy</t>
   </si>
   <si>
     <t>learn</t>
   </si>
   <si>
-    <t>enjoyed</t>
-  </si>
-  <si>
     <t>christmas</t>
   </si>
   <si>
+    <t>every</t>
+  </si>
+  <si>
     <t>happy</t>
   </si>
   <si>
     <t>fun</t>
   </si>
   <si>
+    <t>easy</t>
+  </si>
+  <si>
     <t>family</t>
-  </si>
-  <si>
-    <t>easy</t>
   </si>
   <si>
     <t>game</t>
@@ -692,13 +692,13 @@
         <v>51</v>
       </c>
       <c r="K3">
-        <v>0.875</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="L3">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="M3">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -710,7 +710,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -718,13 +718,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8409090909090909</v>
+        <v>0.8620689655172413</v>
       </c>
       <c r="C4">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="D4">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -736,19 +736,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>52</v>
       </c>
       <c r="K4">
-        <v>0.8615384615384616</v>
+        <v>0.875</v>
       </c>
       <c r="L4">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="M4">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -760,7 +760,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -768,13 +768,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8275862068965517</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="C5">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="D5">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -786,19 +786,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>53</v>
       </c>
       <c r="K5">
-        <v>0.8518518518518519</v>
+        <v>0.8615384615384616</v>
       </c>
       <c r="L5">
-        <v>23</v>
+        <v>56</v>
       </c>
       <c r="M5">
-        <v>23</v>
+        <v>56</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -810,7 +810,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -818,13 +818,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.734375</v>
+        <v>0.7183098591549296</v>
       </c>
       <c r="C6">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D6">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>54</v>
@@ -868,13 +868,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.6901408450704225</v>
+        <v>0.6875</v>
       </c>
       <c r="C7">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="D7">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -886,19 +886,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>55</v>
       </c>
       <c r="K7">
-        <v>0.703125</v>
+        <v>0.75</v>
       </c>
       <c r="L7">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="M7">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -910,7 +910,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -918,13 +918,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.6666666666666666</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="C8">
-        <v>124</v>
+        <v>26</v>
       </c>
       <c r="D8">
-        <v>124</v>
+        <v>26</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -936,19 +936,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>56</v>
       </c>
       <c r="K8">
-        <v>0.6415094339622641</v>
+        <v>0.6792452830188679</v>
       </c>
       <c r="L8">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="M8">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -960,7 +960,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -968,13 +968,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.6486486486486487</v>
+        <v>0.6774193548387096</v>
       </c>
       <c r="C9">
-        <v>96</v>
+        <v>126</v>
       </c>
       <c r="D9">
-        <v>96</v>
+        <v>126</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -986,19 +986,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>57</v>
       </c>
       <c r="K9">
-        <v>0.6086956521739131</v>
+        <v>0.5652173913043478</v>
       </c>
       <c r="L9">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="M9">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1010,7 +1010,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1018,13 +1018,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.6213592233009708</v>
+        <v>0.6418918918918919</v>
       </c>
       <c r="C10">
-        <v>128</v>
+        <v>95</v>
       </c>
       <c r="D10">
-        <v>128</v>
+        <v>95</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1036,19 +1036,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>78</v>
+        <v>53</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>58</v>
       </c>
       <c r="K10">
-        <v>0.5480631276901005</v>
+        <v>0.533715925394548</v>
       </c>
       <c r="L10">
-        <v>382</v>
+        <v>372</v>
       </c>
       <c r="M10">
-        <v>382</v>
+        <v>372</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1060,7 +1060,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>315</v>
+        <v>325</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1068,13 +1068,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.6052631578947368</v>
+        <v>0.6050420168067226</v>
       </c>
       <c r="C11">
-        <v>23</v>
+        <v>72</v>
       </c>
       <c r="D11">
-        <v>23</v>
+        <v>72</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1086,19 +1086,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>59</v>
       </c>
       <c r="K11">
-        <v>0.504149377593361</v>
+        <v>0.5145228215767634</v>
       </c>
       <c r="L11">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="M11">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1110,7 +1110,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>239</v>
+        <v>234</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1118,13 +1118,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.5833333333333334</v>
+        <v>0.587378640776699</v>
       </c>
       <c r="C12">
-        <v>28</v>
+        <v>121</v>
       </c>
       <c r="D12">
-        <v>28</v>
+        <v>121</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1136,19 +1136,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>20</v>
+        <v>85</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>60</v>
       </c>
       <c r="K12">
-        <v>0.4459016393442623</v>
+        <v>0.4450819672131148</v>
       </c>
       <c r="L12">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="M12">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1160,7 +1160,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>676</v>
+        <v>677</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1168,13 +1168,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.5714285714285714</v>
+        <v>0.5818181818181818</v>
       </c>
       <c r="C13">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="D13">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1186,7 +1186,7 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>61</v>
@@ -1218,13 +1218,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.5636363636363636</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="C14">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D14">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1236,19 +1236,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>62</v>
       </c>
       <c r="K14">
-        <v>0.3492063492063492</v>
+        <v>0.3425076452599388</v>
       </c>
       <c r="L14">
-        <v>66</v>
+        <v>112</v>
       </c>
       <c r="M14">
-        <v>66</v>
+        <v>112</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1260,7 +1260,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>123</v>
+        <v>215</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1268,13 +1268,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.5630252100840336</v>
+        <v>0.5</v>
       </c>
       <c r="C15">
-        <v>67</v>
+        <v>24</v>
       </c>
       <c r="D15">
-        <v>67</v>
+        <v>24</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1286,19 +1286,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>63</v>
       </c>
       <c r="K15">
-        <v>0.3486238532110092</v>
+        <v>0.325</v>
       </c>
       <c r="L15">
-        <v>114</v>
+        <v>39</v>
       </c>
       <c r="M15">
-        <v>114</v>
+        <v>39</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1310,7 +1310,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>213</v>
+        <v>81</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1318,13 +1318,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.5072463768115942</v>
+        <v>0.4869565217391305</v>
       </c>
       <c r="C16">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="D16">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1336,19 +1336,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>64</v>
       </c>
       <c r="K16">
-        <v>0.2833333333333333</v>
+        <v>0.3174603174603174</v>
       </c>
       <c r="L16">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="M16">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1360,7 +1360,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>86</v>
+        <v>129</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1368,13 +1368,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.4444444444444444</v>
+        <v>0.462962962962963</v>
       </c>
       <c r="C17">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D17">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1386,7 +1386,7 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>65</v>
@@ -1418,13 +1418,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.3886255924170616</v>
+        <v>0.4259259259259259</v>
       </c>
       <c r="C18">
-        <v>82</v>
+        <v>23</v>
       </c>
       <c r="D18">
-        <v>82</v>
+        <v>23</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1436,7 +1436,7 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>129</v>
+        <v>31</v>
       </c>
       <c r="J18" s="1" t="s">
         <v>66</v>
@@ -1468,13 +1468,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.3858267716535433</v>
+        <v>0.4210526315789473</v>
       </c>
       <c r="C19">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="D19">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1486,19 +1486,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>78</v>
+        <v>55</v>
       </c>
       <c r="J19" s="1" t="s">
         <v>67</v>
       </c>
       <c r="K19">
-        <v>0.1746031746031746</v>
+        <v>0.1967871485943775</v>
       </c>
       <c r="L19">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="M19">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1510,7 +1510,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>104</v>
+        <v>200</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1518,13 +1518,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.3809523809523809</v>
+        <v>0.3975903614457831</v>
       </c>
       <c r="C20">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="D20">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1536,19 +1536,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="J20" s="1" t="s">
         <v>68</v>
       </c>
       <c r="K20">
-        <v>0.1686746987951807</v>
+        <v>0.184</v>
       </c>
       <c r="L20">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="M20">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1560,7 +1560,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>207</v>
+        <v>102</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1568,13 +1568,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.3789473684210526</v>
+        <v>0.3858267716535433</v>
       </c>
       <c r="C21">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="D21">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1586,19 +1586,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="J21" s="1" t="s">
         <v>69</v>
       </c>
       <c r="K21">
-        <v>0.1678321678321678</v>
+        <v>0.1748251748251748</v>
       </c>
       <c r="L21">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M21">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1610,7 +1610,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1618,13 +1618,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.3650793650793651</v>
+        <v>0.3791469194312796</v>
       </c>
       <c r="C22">
-        <v>23</v>
+        <v>80</v>
       </c>
       <c r="D22">
-        <v>23</v>
+        <v>80</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1636,19 +1636,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>40</v>
+        <v>131</v>
       </c>
       <c r="J22" s="1" t="s">
         <v>70</v>
       </c>
       <c r="K22">
-        <v>0.147239263803681</v>
+        <v>0.1498685363716039</v>
       </c>
       <c r="L22">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="M22">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1660,7 +1660,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>973</v>
+        <v>970</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1668,13 +1668,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.3493975903614458</v>
+        <v>0.3492063492063492</v>
       </c>
       <c r="C23">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="D23">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1686,19 +1686,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="J23" s="1" t="s">
         <v>71</v>
       </c>
       <c r="K23">
-        <v>0.08356545961002786</v>
+        <v>0.09625668449197861</v>
       </c>
       <c r="L23">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="M23">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1710,7 +1710,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>329</v>
+        <v>338</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1718,13 +1718,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.34375</v>
+        <v>0.3359375</v>
       </c>
       <c r="C24">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="D24">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1736,19 +1736,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>42</v>
+        <v>85</v>
       </c>
       <c r="J24" s="1" t="s">
         <v>72</v>
       </c>
       <c r="K24">
-        <v>0.08021390374331551</v>
+        <v>0.07799442896935933</v>
       </c>
       <c r="L24">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M24">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1760,7 +1760,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>344</v>
+        <v>331</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1768,13 +1768,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.3359375</v>
+        <v>0.2821782178217822</v>
       </c>
       <c r="C25">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="D25">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1786,19 +1786,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>85</v>
+        <v>145</v>
       </c>
       <c r="J25" s="1" t="s">
         <v>73</v>
       </c>
       <c r="K25">
-        <v>0.07727272727272727</v>
+        <v>0.07532467532467532</v>
       </c>
       <c r="L25">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="M25">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="N25">
         <v>0.99</v>
@@ -1810,7 +1810,7 @@
         <v>1</v>
       </c>
       <c r="Q25">
-        <v>1421</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1842,25 +1842,25 @@
         <v>74</v>
       </c>
       <c r="K26">
-        <v>0.04793608521970705</v>
+        <v>0.03866666666666667</v>
       </c>
       <c r="L26">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="M26">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="N26">
-        <v>0.97</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O26">
-        <v>0.03000000000000003</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P26" t="b">
         <v>1</v>
       </c>
       <c r="Q26">
-        <v>715</v>
+        <v>721</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1868,13 +1868,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.2722772277227723</v>
+        <v>0.2653061224489796</v>
       </c>
       <c r="C27">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="D27">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1886,7 +1886,7 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>147</v>
+        <v>72</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1894,13 +1894,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.2136752136752137</v>
+        <v>0.2628865979381443</v>
       </c>
       <c r="C28">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="D28">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1912,7 +1912,7 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>92</v>
+        <v>143</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -1920,13 +1920,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.211340206185567</v>
+        <v>0.2136752136752137</v>
       </c>
       <c r="C29">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="D29">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -1938,7 +1938,7 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>153</v>
+        <v>92</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -1946,13 +1946,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.19</v>
+        <v>0.1772151898734177</v>
       </c>
       <c r="C30">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="D30">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -1964,7 +1964,7 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>162</v>
+        <v>260</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -1972,13 +1972,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.180379746835443</v>
+        <v>0.1750741839762611</v>
       </c>
       <c r="C31">
-        <v>57</v>
+        <v>118</v>
       </c>
       <c r="D31">
-        <v>57</v>
+        <v>118</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -1990,7 +1990,7 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>259</v>
+        <v>556</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -1998,25 +1998,25 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.177536231884058</v>
+        <v>0.1642651296829971</v>
       </c>
       <c r="C32">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="D32">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="E32">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F32">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H32">
-        <v>227</v>
+        <v>290</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2024,13 +2024,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.1661721068249258</v>
+        <v>0.1630434782608696</v>
       </c>
       <c r="C33">
-        <v>112</v>
+        <v>45</v>
       </c>
       <c r="D33">
-        <v>112</v>
+        <v>45</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2042,7 +2042,7 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>562</v>
+        <v>231</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2050,13 +2050,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.1580459770114943</v>
+        <v>0.1571428571428571</v>
       </c>
       <c r="C34">
-        <v>55</v>
+        <v>22</v>
       </c>
       <c r="D34">
-        <v>55</v>
+        <v>22</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2068,7 +2068,7 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>293</v>
+        <v>118</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2076,13 +2076,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.1550632911392405</v>
+        <v>0.1401869158878505</v>
       </c>
       <c r="C35">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="D35">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2094,7 +2094,7 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>267</v>
+        <v>184</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2102,13 +2102,13 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.1255506607929515</v>
+        <v>0.14</v>
       </c>
       <c r="C36">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="D36">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2120,7 +2120,7 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>397</v>
+        <v>172</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2128,13 +2128,13 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.1214953271028037</v>
+        <v>0.1392405063291139</v>
       </c>
       <c r="C37">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="D37">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2146,7 +2146,7 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>188</v>
+        <v>272</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2154,13 +2154,13 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.1202185792349727</v>
+        <v>0.1211453744493392</v>
       </c>
       <c r="C38">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="D38">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2172,7 +2172,7 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>161</v>
+        <v>399</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2180,25 +2180,25 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.1086142322097378</v>
+        <v>0.1165413533834586</v>
       </c>
       <c r="C39">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D39">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E39">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="F39">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="G39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H39">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2206,13 +2206,13 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.07671232876712329</v>
+        <v>0.0684931506849315</v>
       </c>
       <c r="C40">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D40">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2224,7 +2224,7 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>337</v>
+        <v>340</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2232,13 +2232,13 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.07323943661971831</v>
+        <v>0.06013363028953229</v>
       </c>
       <c r="C41">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D41">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -2250,7 +2250,7 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>329</v>
+        <v>422</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2258,25 +2258,25 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.066006600660066</v>
+        <v>0.05271828665568369</v>
       </c>
       <c r="C42">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="D42">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="E42">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="F42">
-        <v>0.95</v>
+        <v>0.97</v>
       </c>
       <c r="G42" t="b">
         <v>1</v>
       </c>
       <c r="H42">
-        <v>566</v>
+        <v>575</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2284,25 +2284,25 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.05803571428571429</v>
+        <v>0.05128205128205128</v>
       </c>
       <c r="C43">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D43">
         <v>27</v>
       </c>
       <c r="E43">
-        <v>0.04</v>
+        <v>0.19</v>
       </c>
       <c r="F43">
-        <v>0.96</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="G43" t="b">
         <v>1</v>
       </c>
       <c r="H43">
-        <v>422</v>
+        <v>407</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2310,25 +2310,25 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.03295310519645121</v>
+        <v>0.04309252217997465</v>
       </c>
       <c r="C44">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="D44">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="E44">
-        <v>0.16</v>
+        <v>0.13</v>
       </c>
       <c r="F44">
-        <v>0.84</v>
+        <v>0.87</v>
       </c>
       <c r="G44" t="b">
         <v>1</v>
       </c>
       <c r="H44">
-        <v>763</v>
+        <v>755</v>
       </c>
     </row>
   </sheetData>
